--- a/Code/Results/Cases/Case_2_126/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_126/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9946314360686301</v>
+        <v>0.6867480601921443</v>
       </c>
       <c r="C2">
-        <v>0.1223116189968039</v>
+        <v>0.06186139118783274</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1016137697559536</v>
+        <v>0.06414771136651787</v>
       </c>
       <c r="F2">
-        <v>6.5890730705365</v>
+        <v>4.745424882012145</v>
       </c>
       <c r="G2">
-        <v>0.0008446609889831586</v>
+        <v>0.00256535435728528</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.6609073209022824</v>
+        <v>0.351505183128495</v>
       </c>
       <c r="K2">
-        <v>1.02374376358037</v>
+        <v>0.6705353803752985</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8645841956376046</v>
+        <v>0.6598999962387211</v>
       </c>
       <c r="C3">
-        <v>0.1045510967417869</v>
+        <v>0.05859817479149854</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.08167625313283011</v>
+        <v>0.06919183598000878</v>
       </c>
       <c r="F3">
-        <v>5.846942491962409</v>
+        <v>4.558725301135297</v>
       </c>
       <c r="G3">
-        <v>0.0008532110811026025</v>
+        <v>0.002570151694943194</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5852975065955661</v>
+        <v>0.3304764664003699</v>
       </c>
       <c r="K3">
-        <v>0.8866688822428728</v>
+        <v>0.6429127507293515</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7867078768165925</v>
+        <v>0.6440199493475234</v>
       </c>
       <c r="C4">
-        <v>0.0939777125205552</v>
+        <v>0.05667445641604729</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.07035978339039595</v>
+        <v>0.07261077449990871</v>
       </c>
       <c r="F4">
-        <v>5.402600498146256</v>
+        <v>4.445366689240643</v>
       </c>
       <c r="G4">
-        <v>0.0008585789352132736</v>
+        <v>0.002573248420380762</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5399109304366903</v>
+        <v>0.3175583180250072</v>
       </c>
       <c r="K4">
-        <v>0.804676638108532</v>
+        <v>0.6265921626335569</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.755410265471653</v>
+        <v>0.6377003233068024</v>
       </c>
       <c r="C5">
-        <v>0.08974118708168533</v>
+        <v>0.05591047194965881</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.06594584176253449</v>
+        <v>0.07408422258839664</v>
       </c>
       <c r="F5">
-        <v>5.223973248196359</v>
+        <v>4.399485825492718</v>
       </c>
       <c r="G5">
-        <v>0.0008607981595455221</v>
+        <v>0.002574548506204794</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5216340940727235</v>
+        <v>0.3122915013209706</v>
       </c>
       <c r="K5">
-        <v>0.7717441886608754</v>
+        <v>0.6201016840448972</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7502381441664738</v>
+        <v>0.6366600988854998</v>
       </c>
       <c r="C6">
-        <v>0.08904177156277626</v>
+        <v>0.05578481336775098</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.06522389894548475</v>
+        <v>0.07433371058955096</v>
       </c>
       <c r="F6">
-        <v>5.194449031554797</v>
+        <v>4.391886083729844</v>
       </c>
       <c r="G6">
-        <v>0.0008611686373649738</v>
+        <v>0.002574766692285068</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5186112788399555</v>
+        <v>0.3114167678251505</v>
       </c>
       <c r="K6">
-        <v>0.7663029596674562</v>
+        <v>0.6190336093477242</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7862840877690473</v>
+        <v>0.6439341073448475</v>
       </c>
       <c r="C7">
-        <v>0.09392029880844177</v>
+        <v>0.05666407248553185</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.07029949861227358</v>
+        <v>0.07263032215313636</v>
       </c>
       <c r="F7">
-        <v>5.400182069023487</v>
+        <v>4.444746663102535</v>
       </c>
       <c r="G7">
-        <v>0.00085860873337582</v>
+        <v>0.002573265799225455</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5396636107159196</v>
+        <v>0.3174872995153351</v>
       </c>
       <c r="K7">
-        <v>0.8042306387107487</v>
+        <v>0.6265039815280602</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9493445318829856</v>
+        <v>0.6773650392745765</v>
       </c>
       <c r="C8">
-        <v>0.1161118480575425</v>
+        <v>0.06071955799819762</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.09452480588120515</v>
+        <v>0.0658196935226858</v>
       </c>
       <c r="F8">
-        <v>6.330578880122772</v>
+        <v>4.680781746872668</v>
       </c>
       <c r="G8">
-        <v>0.0008475858793434622</v>
+        <v>0.002566977193998751</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.634594584723061</v>
+        <v>0.344255237641363</v>
       </c>
       <c r="K8">
-        <v>0.9759875440484791</v>
+        <v>0.6608779299050695</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.287744405660334</v>
+        <v>0.7477473729219923</v>
       </c>
       <c r="C9">
-        <v>0.1628361281789807</v>
+        <v>0.0693137209656669</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1512137024599483</v>
+        <v>0.05505039898215003</v>
       </c>
       <c r="F9">
-        <v>8.265703609049694</v>
+        <v>5.154114576379527</v>
       </c>
       <c r="G9">
-        <v>0.000826800756536961</v>
+        <v>0.002555838119578146</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.8311755187022527</v>
+        <v>0.3967412620999227</v>
       </c>
       <c r="K9">
-        <v>1.333416621719948</v>
+        <v>0.7333941401487039</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.552501241497282</v>
+        <v>0.8024417697434387</v>
       </c>
       <c r="C10">
-        <v>0.2000518742083131</v>
+        <v>0.07602995096017651</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2015321713630911</v>
+        <v>0.04876060072384014</v>
       </c>
       <c r="F10">
-        <v>9.788472269304663</v>
+        <v>5.508773418216691</v>
       </c>
       <c r="G10">
-        <v>0.0008118670790249745</v>
+        <v>0.002548372489387998</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.9854978737800195</v>
+        <v>0.4353652654044424</v>
       </c>
       <c r="K10">
-        <v>1.614007899235304</v>
+        <v>0.7898391855967191</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.677721796273261</v>
+        <v>0.8279818279525841</v>
       </c>
       <c r="C11">
-        <v>0.2178628698662095</v>
+        <v>0.07917515858270008</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2271765512992907</v>
+        <v>0.04626157676127285</v>
       </c>
       <c r="F11">
-        <v>10.51229493760951</v>
+        <v>5.671731534183152</v>
       </c>
       <c r="G11">
-        <v>0.0008051015620071085</v>
+        <v>0.002545130223629368</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.058815661985051</v>
+        <v>0.4529644988392647</v>
       </c>
       <c r="K11">
-        <v>1.747014165260453</v>
+        <v>0.8162174526749482</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.72595358824384</v>
+        <v>0.8377486938086065</v>
       </c>
       <c r="C12">
-        <v>0.2247598538532287</v>
+        <v>0.08037929624285312</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2373751327219011</v>
+        <v>0.04536820249932738</v>
       </c>
       <c r="F12">
-        <v>10.79178674557903</v>
+        <v>5.733681661555579</v>
       </c>
       <c r="G12">
-        <v>0.0008025391785446701</v>
+        <v>0.002543924443805077</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.087125063732913</v>
+        <v>0.4596341701866891</v>
       </c>
       <c r="K12">
-        <v>1.798296463038099</v>
+        <v>0.8263079116789527</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.715527601552679</v>
+        <v>0.8356409718927864</v>
       </c>
       <c r="C13">
-        <v>0.2232672323765001</v>
+        <v>0.08011937741984809</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2351553334464676</v>
+        <v>0.04555823767044309</v>
       </c>
       <c r="F13">
-        <v>10.73133672256671</v>
+        <v>5.720328723847729</v>
       </c>
       <c r="G13">
-        <v>0.0008030911311730914</v>
+        <v>0.002544183153921686</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.081002121565234</v>
+        <v>0.4581974878404083</v>
       </c>
       <c r="K13">
-        <v>1.787208617098855</v>
+        <v>0.8241302205719876</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.681672756608236</v>
+        <v>0.8287834384573216</v>
       </c>
       <c r="C14">
-        <v>0.2184270727144479</v>
+        <v>0.07927395980952667</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2280052292715702</v>
+        <v>0.04618701208945275</v>
       </c>
       <c r="F14">
-        <v>10.53517488026148</v>
+        <v>5.676823322525308</v>
       </c>
       <c r="G14">
-        <v>0.0008048907898944112</v>
+        <v>0.002545030583460238</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.061133138654384</v>
+        <v>0.4535131059235766</v>
       </c>
       <c r="K14">
-        <v>1.751213925569431</v>
+        <v>0.8170455605281575</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.661045712699092</v>
+        <v>0.8245954430691427</v>
       </c>
       <c r="C15">
-        <v>0.215483012316156</v>
+        <v>0.07875783057610874</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2236921278389019</v>
+        <v>0.04657907635425573</v>
       </c>
       <c r="F15">
-        <v>10.41575297545899</v>
+        <v>5.650206694107624</v>
       </c>
       <c r="G15">
-        <v>0.0008059929326156975</v>
+        <v>0.002545552519088536</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.049037051008469</v>
+        <v>0.4506444986044471</v>
       </c>
       <c r="K15">
-        <v>1.729290083755643</v>
+        <v>0.8127192535649499</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.544424309912273</v>
+        <v>0.8007859839915739</v>
       </c>
       <c r="C16">
-        <v>0.1989077082406823</v>
+        <v>0.07582622973738751</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1999190804361444</v>
+        <v>0.04893128032241734</v>
       </c>
       <c r="F16">
-        <v>9.741869965363918</v>
+        <v>5.498157057249671</v>
       </c>
       <c r="G16">
-        <v>0.0008123094188587481</v>
+        <v>0.002548587464195197</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.980777030653428</v>
+        <v>0.4342157872402197</v>
       </c>
       <c r="K16">
-        <v>1.605435376478397</v>
+        <v>0.7881294768129123</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.474188961368782</v>
+        <v>0.7863489311688738</v>
       </c>
       <c r="C17">
-        <v>0.1889819056448374</v>
+        <v>0.0740509551160784</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1861000089277685</v>
+        <v>0.05046766751988585</v>
       </c>
       <c r="F17">
-        <v>9.337039470345701</v>
+        <v>5.405300742987862</v>
       </c>
       <c r="G17">
-        <v>0.0008161885799165339</v>
+        <v>0.002550488623916852</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.939763912574989</v>
+        <v>0.4241454746395448</v>
       </c>
       <c r="K17">
-        <v>1.530923930606235</v>
+        <v>0.773224555508591</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.434232877109622</v>
+        <v>0.778107140274102</v>
       </c>
       <c r="C18">
-        <v>0.1833540364826405</v>
+        <v>0.0730383206611549</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1784044354230012</v>
+        <v>0.05138539969897415</v>
       </c>
       <c r="F18">
-        <v>9.107055910431086</v>
+        <v>5.35204442188089</v>
       </c>
       <c r="G18">
-        <v>0.0008184226992683544</v>
+        <v>0.002551596613445345</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.9164607809080394</v>
+        <v>0.4183559609572853</v>
       </c>
       <c r="K18">
-        <v>1.488561895239513</v>
+        <v>0.7647175861235382</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.420776730653074</v>
+        <v>0.7753272457323703</v>
       </c>
       <c r="C19">
-        <v>0.181461771117057</v>
+        <v>0.07269690705497567</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1758397681668011</v>
+        <v>0.05170194891984892</v>
       </c>
       <c r="F19">
-        <v>9.029653799370237</v>
+        <v>5.334038636029021</v>
       </c>
       <c r="G19">
-        <v>0.0008191797609960486</v>
+        <v>0.002551974252881131</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.9086172526152438</v>
+        <v>0.4163961566662806</v>
       </c>
       <c r="K19">
-        <v>1.474299823334718</v>
+        <v>0.7618485761599345</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.481619098767055</v>
+        <v>0.7878793570276628</v>
       </c>
       <c r="C20">
-        <v>0.1900299499085776</v>
+        <v>0.07423905962319566</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1875443053098333</v>
+        <v>0.05030058698194217</v>
       </c>
       <c r="F20">
-        <v>9.379831754430398</v>
+        <v>5.415169647904321</v>
       </c>
       <c r="G20">
-        <v>0.0008157753632111513</v>
+        <v>0.002550284743520793</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.9440995220155628</v>
+        <v>0.4252171932722888</v>
       </c>
       <c r="K20">
-        <v>1.538803600993106</v>
+        <v>0.7748043791324051</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.691593561439731</v>
+        <v>0.8307950682997216</v>
       </c>
       <c r="C21">
-        <v>0.2198443835558095</v>
+        <v>0.07952192204425046</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2300913292679141</v>
+        <v>0.04600088174604089</v>
       </c>
       <c r="F21">
-        <v>10.59263774951341</v>
+        <v>5.689595295315144</v>
       </c>
       <c r="G21">
-        <v>0.000804362237341692</v>
+        <v>0.002544781076835906</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.066953469967984</v>
+        <v>0.454888872189315</v>
       </c>
       <c r="K21">
-        <v>1.76176031631482</v>
+        <v>0.8191237338494375</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.833639781338064</v>
+        <v>0.8593993206592643</v>
       </c>
       <c r="C22">
-        <v>0.240233205135695</v>
+        <v>0.08305111329225667</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2607977927837233</v>
+        <v>0.04349983197404761</v>
       </c>
       <c r="F22">
-        <v>11.4172830221674</v>
+        <v>5.870359438007995</v>
       </c>
       <c r="G22">
-        <v>0.0007968979768302988</v>
+        <v>0.002541312258334102</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.15048425223884</v>
+        <v>0.4743119772812463</v>
       </c>
       <c r="K22">
-        <v>1.912898295356314</v>
+        <v>0.8486814593164524</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.757339190615369</v>
+        <v>0.8440815852742674</v>
       </c>
       <c r="C23">
-        <v>0.2292589467287343</v>
+        <v>0.08116045408495154</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2441083457852216</v>
+        <v>0.04480612133818695</v>
       </c>
       <c r="F23">
-        <v>10.97387571627388</v>
+        <v>5.773750353198864</v>
       </c>
       <c r="G23">
-        <v>0.0008008839282092978</v>
+        <v>0.002543151950706138</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.105568946551756</v>
+        <v>0.4639423160952845</v>
       </c>
       <c r="K23">
-        <v>1.831682656710399</v>
+        <v>0.832851477350232</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.478258624859166</v>
+        <v>0.7871872700582117</v>
       </c>
       <c r="C24">
-        <v>0.189555886126513</v>
+        <v>0.07415399268717238</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1868905693699414</v>
+        <v>0.05037601687190829</v>
       </c>
       <c r="F24">
-        <v>9.360476836915097</v>
+        <v>5.410707517862761</v>
       </c>
       <c r="G24">
-        <v>0.0008159621659929891</v>
+        <v>0.002550376871085773</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.9421385408568028</v>
+        <v>0.4247326692444631</v>
       </c>
       <c r="K24">
-        <v>1.535239731246719</v>
+        <v>0.7740899475930405</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.193748714655527</v>
+        <v>0.7281861820189022</v>
       </c>
       <c r="C25">
-        <v>0.1497646354376911</v>
+        <v>0.0669189759021549</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1346097244555224</v>
+        <v>0.05768222066811468</v>
       </c>
       <c r="F25">
-        <v>7.727186066280836</v>
+        <v>5.024891585113039</v>
       </c>
       <c r="G25">
-        <v>0.0008323508866457455</v>
+        <v>0.002558724757183137</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.776545203060877</v>
+        <v>0.3825362410441357</v>
       </c>
       <c r="K25">
-        <v>1.23400068104732</v>
+        <v>0.7132242498658741</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_126/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_126/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6867480601921443</v>
+        <v>0.9946314360689428</v>
       </c>
       <c r="C2">
-        <v>0.06186139118783274</v>
+        <v>0.1223116189978128</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.06414771136651787</v>
+        <v>0.1016137697559465</v>
       </c>
       <c r="F2">
-        <v>4.745424882012145</v>
+        <v>6.589073070536472</v>
       </c>
       <c r="G2">
-        <v>0.00256535435728528</v>
+        <v>0.0008446609891163046</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.351505183128495</v>
+        <v>0.6609073209020409</v>
       </c>
       <c r="K2">
-        <v>0.6705353803752985</v>
+        <v>1.02374376358037</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6598999962387211</v>
+        <v>0.8645841956372635</v>
       </c>
       <c r="C3">
-        <v>0.05859817479149854</v>
+        <v>0.10455109674146</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.06919183598000878</v>
+        <v>0.0816762531328159</v>
       </c>
       <c r="F3">
-        <v>4.558725301135297</v>
+        <v>5.846942491962324</v>
       </c>
       <c r="G3">
-        <v>0.002570151694943194</v>
+        <v>0.0008532110812454572</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3304764664003699</v>
+        <v>0.5852975065957224</v>
       </c>
       <c r="K3">
-        <v>0.6429127507293515</v>
+        <v>0.8866688822428728</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6440199493475234</v>
+        <v>0.7867078768163935</v>
       </c>
       <c r="C4">
-        <v>0.05667445641604729</v>
+        <v>0.09397771252007203</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.07261077449990871</v>
+        <v>0.07035978339041549</v>
       </c>
       <c r="F4">
-        <v>4.445366689240643</v>
+        <v>5.402600498146342</v>
       </c>
       <c r="G4">
-        <v>0.002573248420380762</v>
+        <v>0.0008585789351737722</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3175583180250072</v>
+        <v>0.5399109304367471</v>
       </c>
       <c r="K4">
-        <v>0.6265921626335569</v>
+        <v>0.8046766381083614</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6377003233068024</v>
+        <v>0.7554102654720225</v>
       </c>
       <c r="C5">
-        <v>0.05591047194965881</v>
+        <v>0.08974118708293588</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.07408422258839664</v>
+        <v>0.06594584176246876</v>
       </c>
       <c r="F5">
-        <v>4.399485825492718</v>
+        <v>5.223973248196472</v>
       </c>
       <c r="G5">
-        <v>0.002574548506204794</v>
+        <v>0.000860798159742012</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3122915013209706</v>
+        <v>0.5216340940726809</v>
       </c>
       <c r="K5">
-        <v>0.6201016840448972</v>
+        <v>0.771744188660989</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6366600988854998</v>
+        <v>0.7502381441665875</v>
       </c>
       <c r="C6">
-        <v>0.05578481336775098</v>
+        <v>0.08904177156318838</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.07433371058955096</v>
+        <v>0.06522389894544567</v>
       </c>
       <c r="F6">
-        <v>4.391886083729844</v>
+        <v>5.194449031554797</v>
       </c>
       <c r="G6">
-        <v>0.002574766692285068</v>
+        <v>0.0008611686373683563</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3114167678251505</v>
+        <v>0.5186112788399555</v>
       </c>
       <c r="K6">
-        <v>0.6190336093477242</v>
+        <v>0.7663029596675131</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6439341073448475</v>
+        <v>0.7862840877689337</v>
       </c>
       <c r="C7">
-        <v>0.05666407248553185</v>
+        <v>0.09392029880946495</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.07263032215313636</v>
+        <v>0.07029949861221496</v>
       </c>
       <c r="F7">
-        <v>4.444746663102535</v>
+        <v>5.400182069023458</v>
       </c>
       <c r="G7">
-        <v>0.002573265799225455</v>
+        <v>0.0008586087330526418</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3174872995153351</v>
+        <v>0.5396636107159054</v>
       </c>
       <c r="K7">
-        <v>0.6265039815280602</v>
+        <v>0.8042306387105782</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6773650392745765</v>
+        <v>0.9493445318831277</v>
       </c>
       <c r="C8">
-        <v>0.06071955799819762</v>
+        <v>0.1161118480576135</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.0658196935226858</v>
+        <v>0.09452480588123002</v>
       </c>
       <c r="F8">
-        <v>4.680781746872668</v>
+        <v>6.330578880122715</v>
       </c>
       <c r="G8">
-        <v>0.002566977193998751</v>
+        <v>0.0008475858792439699</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.344255237641363</v>
+        <v>0.6345945847229473</v>
       </c>
       <c r="K8">
-        <v>0.6608779299050695</v>
+        <v>0.9759875440483654</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7477473729219923</v>
+        <v>1.287744405660675</v>
       </c>
       <c r="C9">
-        <v>0.0693137209656669</v>
+        <v>0.162836128180075</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.05505039898215003</v>
+        <v>0.1512137024599305</v>
       </c>
       <c r="F9">
-        <v>5.154114576379527</v>
+        <v>8.265703609049496</v>
       </c>
       <c r="G9">
-        <v>0.002555838119578146</v>
+        <v>0.0008268007563258897</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3967412620999227</v>
+        <v>0.8311755187020964</v>
       </c>
       <c r="K9">
-        <v>0.7333941401487039</v>
+        <v>1.333416621719806</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8024417697434387</v>
+        <v>1.552501241497168</v>
       </c>
       <c r="C10">
-        <v>0.07602995096017651</v>
+        <v>0.2000518742092368</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.04876060072384014</v>
+        <v>0.2015321713629916</v>
       </c>
       <c r="F10">
-        <v>5.508773418216691</v>
+        <v>9.788472269304748</v>
       </c>
       <c r="G10">
-        <v>0.002548372489387998</v>
+        <v>0.0008118670787232395</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.4353652654044424</v>
+        <v>0.9854978737801616</v>
       </c>
       <c r="K10">
-        <v>0.7898391855967191</v>
+        <v>1.614007899235162</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8279818279525841</v>
+        <v>1.677721796273346</v>
       </c>
       <c r="C11">
-        <v>0.07917515858270008</v>
+        <v>0.2178628698665079</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.04626157676127285</v>
+        <v>0.227176551299344</v>
       </c>
       <c r="F11">
-        <v>5.671731534183152</v>
+        <v>10.51229493760917</v>
       </c>
       <c r="G11">
-        <v>0.002545130223629368</v>
+        <v>0.0008051015620722524</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4529644988392647</v>
+        <v>1.058815661985079</v>
       </c>
       <c r="K11">
-        <v>0.8162174526749482</v>
+        <v>1.747014165260197</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8377486938086065</v>
+        <v>1.725953588244295</v>
       </c>
       <c r="C12">
-        <v>0.08037929624285312</v>
+        <v>0.2247598538540956</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.04536820249932738</v>
+        <v>0.2373751327220006</v>
       </c>
       <c r="F12">
-        <v>5.733681661555579</v>
+        <v>10.79178674557926</v>
       </c>
       <c r="G12">
-        <v>0.002543924443805077</v>
+        <v>0.0008025391785117322</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4596341701866891</v>
+        <v>1.087125063732969</v>
       </c>
       <c r="K12">
-        <v>0.8263079116789527</v>
+        <v>1.798296463038213</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8356409718927864</v>
+        <v>1.715527601552395</v>
       </c>
       <c r="C13">
-        <v>0.08011937741984809</v>
+        <v>0.2232672323766991</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.04555823767044309</v>
+        <v>0.2351553334464747</v>
       </c>
       <c r="F13">
-        <v>5.720328723847729</v>
+        <v>10.73133672256637</v>
       </c>
       <c r="G13">
-        <v>0.002544183153921686</v>
+        <v>0.0008030911313272968</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4581974878404083</v>
+        <v>1.081002121565263</v>
       </c>
       <c r="K13">
-        <v>0.8241302205719876</v>
+        <v>1.787208617098969</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8287834384573216</v>
+        <v>1.681672756607753</v>
       </c>
       <c r="C14">
-        <v>0.07927395980952667</v>
+        <v>0.2184270727135385</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.04618701208945275</v>
+        <v>0.2280052292716093</v>
       </c>
       <c r="F14">
-        <v>5.676823322525308</v>
+        <v>10.53517488026142</v>
       </c>
       <c r="G14">
-        <v>0.002545030583460238</v>
+        <v>0.0008048907899261135</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4535131059235766</v>
+        <v>1.061133138654242</v>
       </c>
       <c r="K14">
-        <v>0.8170455605281575</v>
+        <v>1.751213925569601</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8245954430691427</v>
+        <v>1.66104571270003</v>
       </c>
       <c r="C15">
-        <v>0.07875783057610874</v>
+        <v>0.2154830123167386</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.04657907635425573</v>
+        <v>0.223692127838838</v>
       </c>
       <c r="F15">
-        <v>5.650206694107624</v>
+        <v>10.41575297545899</v>
       </c>
       <c r="G15">
-        <v>0.002545552519088536</v>
+        <v>0.000805992932759338</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4506444986044471</v>
+        <v>1.049037051008241</v>
       </c>
       <c r="K15">
-        <v>0.8127192535649499</v>
+        <v>1.729290083755672</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8007859839915739</v>
+        <v>1.544424309912387</v>
       </c>
       <c r="C16">
-        <v>0.07582622973738751</v>
+        <v>0.198907708241947</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.04893128032241734</v>
+        <v>0.1999190804361355</v>
       </c>
       <c r="F16">
-        <v>5.498157057249671</v>
+        <v>9.741869965363747</v>
       </c>
       <c r="G16">
-        <v>0.002548587464195197</v>
+        <v>0.000812309419009044</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.4342157872402197</v>
+        <v>0.9807770306533143</v>
       </c>
       <c r="K16">
-        <v>0.7881294768129123</v>
+        <v>1.60543537647834</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7863489311688738</v>
+        <v>1.474188961369094</v>
       </c>
       <c r="C17">
-        <v>0.0740509551160784</v>
+        <v>0.1889819056453632</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.05046766751988585</v>
+        <v>0.1861000089277187</v>
       </c>
       <c r="F17">
-        <v>5.405300742987862</v>
+        <v>9.337039470345644</v>
       </c>
       <c r="G17">
-        <v>0.002550488623916852</v>
+        <v>0.0008161885799564672</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.4241454746395448</v>
+        <v>0.9397639125749606</v>
       </c>
       <c r="K17">
-        <v>0.773224555508591</v>
+        <v>1.530923930606207</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.778107140274102</v>
+        <v>1.434232877109707</v>
       </c>
       <c r="C18">
-        <v>0.0730383206611549</v>
+        <v>0.1833540364826405</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.05138539969897415</v>
+        <v>0.1784044354230012</v>
       </c>
       <c r="F18">
-        <v>5.35204442188089</v>
+        <v>9.107055910431114</v>
       </c>
       <c r="G18">
-        <v>0.002551596613445345</v>
+        <v>0.0008184226992700084</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.4183559609572853</v>
+        <v>0.9164607809082099</v>
       </c>
       <c r="K18">
-        <v>0.7647175861235382</v>
+        <v>1.488561895239201</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7753272457323703</v>
+        <v>1.420776730653216</v>
       </c>
       <c r="C19">
-        <v>0.07269690705497567</v>
+        <v>0.1814617711178954</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.05170194891984892</v>
+        <v>0.175839768166755</v>
       </c>
       <c r="F19">
-        <v>5.334038636029021</v>
+        <v>9.029653799370351</v>
       </c>
       <c r="G19">
-        <v>0.002551974252881131</v>
+        <v>0.0008191797608274914</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.4163961566662806</v>
+        <v>0.9086172526153007</v>
       </c>
       <c r="K19">
-        <v>0.7618485761599345</v>
+        <v>1.474299823334604</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7878793570276628</v>
+        <v>1.481619098766771</v>
       </c>
       <c r="C20">
-        <v>0.07423905962319566</v>
+        <v>0.1900299499096008</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.05030058698194217</v>
+        <v>0.1875443053097747</v>
       </c>
       <c r="F20">
-        <v>5.415169647904321</v>
+        <v>9.37983175443037</v>
       </c>
       <c r="G20">
-        <v>0.002550284743520793</v>
+        <v>0.0008157753636034457</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.4252171932722888</v>
+        <v>0.9440995220154775</v>
       </c>
       <c r="K20">
-        <v>0.7748043791324051</v>
+        <v>1.538803600993106</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8307950682997216</v>
+        <v>1.691593561440214</v>
       </c>
       <c r="C21">
-        <v>0.07952192204425046</v>
+        <v>0.2198443835553405</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.04600088174604089</v>
+        <v>0.2300913292679034</v>
       </c>
       <c r="F21">
-        <v>5.689595295315144</v>
+        <v>10.59263774951347</v>
       </c>
       <c r="G21">
-        <v>0.002544781076835906</v>
+        <v>0.0008043622368954597</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.454888872189315</v>
+        <v>1.066953469967814</v>
       </c>
       <c r="K21">
-        <v>0.8191237338494375</v>
+        <v>1.761760316314763</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8593993206592643</v>
+        <v>1.833639781337979</v>
       </c>
       <c r="C22">
-        <v>0.08305111329225667</v>
+        <v>0.2402332051363913</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.04349983197404761</v>
+        <v>0.2607977927836416</v>
       </c>
       <c r="F22">
-        <v>5.870359438007995</v>
+        <v>11.41728302216728</v>
       </c>
       <c r="G22">
-        <v>0.002541312258334102</v>
+        <v>0.000796897976742036</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4743119772812463</v>
+        <v>1.150484252238726</v>
       </c>
       <c r="K22">
-        <v>0.8486814593164524</v>
+        <v>1.912898295356143</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8440815852742674</v>
+        <v>1.757339190615255</v>
       </c>
       <c r="C23">
-        <v>0.08116045408495154</v>
+        <v>0.2292589467284216</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.04480612133818695</v>
+        <v>0.2441083457852358</v>
       </c>
       <c r="F23">
-        <v>5.773750353198864</v>
+        <v>10.97387571627416</v>
       </c>
       <c r="G23">
-        <v>0.002543151950706138</v>
+        <v>0.0008008839280590998</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4639423160952845</v>
+        <v>1.105568946551728</v>
       </c>
       <c r="K23">
-        <v>0.832851477350232</v>
+        <v>1.831682656710456</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7871872700582117</v>
+        <v>1.478258624859421</v>
       </c>
       <c r="C24">
-        <v>0.07415399268717238</v>
+        <v>0.189555886126044</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.05037601687190829</v>
+        <v>0.1868905693698544</v>
       </c>
       <c r="F24">
-        <v>5.410707517862761</v>
+        <v>9.360476836914927</v>
       </c>
       <c r="G24">
-        <v>0.002550376871085773</v>
+        <v>0.0008159621660162772</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.4247326692444631</v>
+        <v>0.9421385408569165</v>
       </c>
       <c r="K24">
-        <v>0.7740899475930405</v>
+        <v>1.535239731246634</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7281861820189022</v>
+        <v>1.1937487146553</v>
       </c>
       <c r="C25">
-        <v>0.0669189759021549</v>
+        <v>0.1497646354368243</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.05768222066811468</v>
+        <v>0.1346097244555029</v>
       </c>
       <c r="F25">
-        <v>5.024891585113039</v>
+        <v>7.727186066280694</v>
       </c>
       <c r="G25">
-        <v>0.002558724757183137</v>
+        <v>0.0008323508864319963</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3825362410441357</v>
+        <v>0.7765452030606923</v>
       </c>
       <c r="K25">
-        <v>0.7132242498658741</v>
+        <v>1.234000681047092</v>
       </c>
       <c r="L25">
         <v>0</v>
